--- a/test-data/cars-valid-update.xlsx
+++ b/test-data/cars-valid-update.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TOYO-CAM-2020-RED</v>
+        <v>TOYO-CAM-2015-RED-000</v>
       </c>
       <c r="B2" t="str">
         <v>Camry</v>
@@ -433,10 +433,10 @@
         <v>Toyota</v>
       </c>
       <c r="D2">
-        <v>25000</v>
+        <v>25742</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F2" t="str">
         <v>blue</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>FORD-F-1-2021-BLU</v>
+        <v>FORD-F-1-2016-BLU-001</v>
       </c>
       <c r="B3" t="str">
         <v>F-150</v>
@@ -453,10 +453,10 @@
         <v>Ford</v>
       </c>
       <c r="D3">
-        <v>27500</v>
+        <v>30099</v>
       </c>
       <c r="E3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F3" t="str">
         <v>green</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>HOND-CR--2022-GRE</v>
+        <v>HOND-CR--2017-GRE-002</v>
       </c>
       <c r="B4" t="str">
         <v>CR-V</v>
@@ -473,10 +473,10 @@
         <v>Honda</v>
       </c>
       <c r="D4">
-        <v>30000</v>
+        <v>31014</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F4" t="str">
         <v>yellow</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TESL-MOD-2023-YEL</v>
+        <v>TESL-MOD-2018-YEL-003</v>
       </c>
       <c r="B5" t="str">
         <v>Model Y</v>
@@ -493,10 +493,10 @@
         <v>Tesla</v>
       </c>
       <c r="D5">
-        <v>32500</v>
+        <v>32215</v>
       </c>
       <c r="E5">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F5" t="str">
         <v>silver</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>BMW-3SE-2024-SIL</v>
+        <v>BMW-3SE-2019-SIL-004</v>
       </c>
       <c r="B6" t="str">
         <v>3 Series</v>
@@ -513,10 +513,10 @@
         <v>BMW</v>
       </c>
       <c r="D6">
-        <v>35000</v>
+        <v>33267</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F6" t="str">
         <v>black</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>MERC-E-C-2020-BLA</v>
+        <v>MERC-E-C-2020-BLA-005</v>
       </c>
       <c r="B7" t="str">
         <v>E-Class</v>
@@ -533,7 +533,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D7">
-        <v>37500</v>
+        <v>30109</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AUDI-Q5-2021-WHI</v>
+        <v>AUDI-Q5-2021-WHI-006</v>
       </c>
       <c r="B8" t="str">
         <v>Q5</v>
@@ -553,7 +553,7 @@
         <v>Audi</v>
       </c>
       <c r="D8">
-        <v>40000</v>
+        <v>32856</v>
       </c>
       <c r="E8">
         <v>2021</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CHEV-TAH-2022-RED</v>
+        <v>CHEV-TAH-2022-RED-007</v>
       </c>
       <c r="B9" t="str">
         <v>Tahoe</v>
@@ -573,7 +573,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D9">
-        <v>42500</v>
+        <v>36413</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>NISS-ALT-2023-BLU</v>
+        <v>NISS-ALT-2023-BLU-008</v>
       </c>
       <c r="B10" t="str">
         <v>Altima</v>
@@ -593,7 +593,7 @@
         <v>Nissan</v>
       </c>
       <c r="D10">
-        <v>45000</v>
+        <v>34948</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>MAZD-CX--2024-GRE</v>
+        <v>MAZD-CX--2024-GRE-009</v>
       </c>
       <c r="B11" t="str">
         <v>CX-5</v>
@@ -613,7 +613,7 @@
         <v>Mazda</v>
       </c>
       <c r="D11">
-        <v>47500</v>
+        <v>35057</v>
       </c>
       <c r="E11">
         <v>2024</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TOYO-RAV-2020-YEL</v>
+        <v>TOYO-RAV-2015-YEL-010</v>
       </c>
       <c r="B12" t="str">
         <v>RAV4</v>
@@ -633,10 +633,10 @@
         <v>Toyota</v>
       </c>
       <c r="D12">
-        <v>50000</v>
+        <v>37062</v>
       </c>
       <c r="E12">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F12" t="str">
         <v>silver</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>FORD-BRO-2021-SIL</v>
+        <v>FORD-BRO-2016-SIL-011</v>
       </c>
       <c r="B13" t="str">
         <v>Bronco</v>
@@ -653,10 +653,10 @@
         <v>Ford</v>
       </c>
       <c r="D13">
-        <v>52500</v>
+        <v>39200</v>
       </c>
       <c r="E13">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F13" t="str">
         <v>black</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>HOND-CIV-2022-BLA</v>
+        <v>HOND-CIV-2017-BLA-012</v>
       </c>
       <c r="B14" t="str">
         <v>Civic</v>
@@ -673,10 +673,10 @@
         <v>Honda</v>
       </c>
       <c r="D14">
-        <v>55000</v>
+        <v>37566</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F14" t="str">
         <v>white</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>TESL-MOD-2023-WHI</v>
+        <v>TESL-MOD-2018-WHI-013</v>
       </c>
       <c r="B15" t="str">
         <v>Model S</v>
@@ -693,10 +693,10 @@
         <v>Tesla</v>
       </c>
       <c r="D15">
-        <v>57500</v>
+        <v>40236</v>
       </c>
       <c r="E15">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F15" t="str">
         <v>red</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>BMW-X5-2024-RED</v>
+        <v>BMW-X5-2019-RED-014</v>
       </c>
       <c r="B16" t="str">
         <v>X5</v>
@@ -713,10 +713,10 @@
         <v>BMW</v>
       </c>
       <c r="D16">
-        <v>60000</v>
+        <v>40230</v>
       </c>
       <c r="E16">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F16" t="str">
         <v>blue</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>MERC-GLA-2020-BLU</v>
+        <v>MERC-GLA-2020-BLU-015</v>
       </c>
       <c r="B17" t="str">
         <v>GLA</v>
@@ -733,7 +733,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D17">
-        <v>62500</v>
+        <v>41178</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AUDI-A4-2021-GRE</v>
+        <v>AUDI-A4-2021-GRE-016</v>
       </c>
       <c r="B18" t="str">
         <v>A4</v>
@@ -753,7 +753,7 @@
         <v>Audi</v>
       </c>
       <c r="D18">
-        <v>65000</v>
+        <v>45981</v>
       </c>
       <c r="E18">
         <v>2021</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>CHEV-MAL-2022-YEL</v>
+        <v>CHEV-MAL-2022-YEL-017</v>
       </c>
       <c r="B19" t="str">
         <v>Malibu</v>
@@ -773,7 +773,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D19">
-        <v>67500</v>
+        <v>45142</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>NISS-SEN-2023-SIL</v>
+        <v>NISS-SEN-2023-SIL-018</v>
       </c>
       <c r="B20" t="str">
         <v>Sentra</v>
@@ -793,7 +793,7 @@
         <v>Nissan</v>
       </c>
       <c r="D20">
-        <v>70000</v>
+        <v>46974</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>MAZD-CX--2024-BLA</v>
+        <v>MAZD-CX--2024-BLA-019</v>
       </c>
       <c r="B21" t="str">
         <v>CX-9</v>
@@ -813,7 +813,7 @@
         <v>Mazda</v>
       </c>
       <c r="D21">
-        <v>72500</v>
+        <v>47124</v>
       </c>
       <c r="E21">
         <v>2024</v>
@@ -822,9 +822,3609 @@
         <v>white</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TOYO-CAM-2015-WHI-020</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D22">
+        <v>45298</v>
+      </c>
+      <c r="E22">
+        <v>2015</v>
+      </c>
+      <c r="F22" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>FORD-F-1-2016-RED-021</v>
+      </c>
+      <c r="B23" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D23">
+        <v>49514</v>
+      </c>
+      <c r="E23">
+        <v>2016</v>
+      </c>
+      <c r="F23" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>HOND-CR--2017-BLU-022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D24">
+        <v>47052</v>
+      </c>
+      <c r="E24">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TESL-MOD-2018-GRE-023</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D25">
+        <v>51911</v>
+      </c>
+      <c r="E25">
+        <v>2018</v>
+      </c>
+      <c r="F25" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>BMW-3SE-2019-YEL-024</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C26" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D26">
+        <v>51074</v>
+      </c>
+      <c r="E26">
+        <v>2019</v>
+      </c>
+      <c r="F26" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>MERC-E-C-2020-SIL-025</v>
+      </c>
+      <c r="B27" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D27">
+        <v>51706</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>AUDI-Q5-2021-BLA-026</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D28">
+        <v>53596</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
+      </c>
+      <c r="F28" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>CHEV-TAH-2022-WHI-027</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D29">
+        <v>55793</v>
+      </c>
+      <c r="E29">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>NISS-ALT-2023-RED-028</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D30">
+        <v>54388</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>MAZD-CX--2024-BLU-029</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D31">
+        <v>54192</v>
+      </c>
+      <c r="E31">
+        <v>2024</v>
+      </c>
+      <c r="F31" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TOYO-RAV-2015-GRE-030</v>
+      </c>
+      <c r="B32" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D32">
+        <v>55886</v>
+      </c>
+      <c r="E32">
+        <v>2015</v>
+      </c>
+      <c r="F32" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>FORD-BRO-2016-YEL-031</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D33">
+        <v>57543</v>
+      </c>
+      <c r="E33">
+        <v>2016</v>
+      </c>
+      <c r="F33" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>HOND-CIV-2017-SIL-032</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D34">
+        <v>57656</v>
+      </c>
+      <c r="E34">
+        <v>2017</v>
+      </c>
+      <c r="F34" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TESL-MOD-2018-BLA-033</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D35">
+        <v>58649</v>
+      </c>
+      <c r="E35">
+        <v>2018</v>
+      </c>
+      <c r="F35" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>BMW-X5-2019-WHI-034</v>
+      </c>
+      <c r="B36" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C36" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D36">
+        <v>61961</v>
+      </c>
+      <c r="E36">
+        <v>2019</v>
+      </c>
+      <c r="F36" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>MERC-GLA-2020-RED-035</v>
+      </c>
+      <c r="B37" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D37">
+        <v>61689</v>
+      </c>
+      <c r="E37">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>AUDI-A4-2021-BLU-036</v>
+      </c>
+      <c r="B38" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D38">
+        <v>62702</v>
+      </c>
+      <c r="E38">
+        <v>2021</v>
+      </c>
+      <c r="F38" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>CHEV-MAL-2022-GRE-037</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D39">
+        <v>63099</v>
+      </c>
+      <c r="E39">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>NISS-SEN-2023-YEL-038</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D40">
+        <v>63742</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>MAZD-CX--2024-SIL-039</v>
+      </c>
+      <c r="B41" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D41">
+        <v>65516</v>
+      </c>
+      <c r="E41">
+        <v>2024</v>
+      </c>
+      <c r="F41" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TOYO-CAM-2015-BLA-040</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D42">
+        <v>66680</v>
+      </c>
+      <c r="E42">
+        <v>2015</v>
+      </c>
+      <c r="F42" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>FORD-F-1-2016-WHI-041</v>
+      </c>
+      <c r="B43" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D43">
+        <v>70349</v>
+      </c>
+      <c r="E43">
+        <v>2016</v>
+      </c>
+      <c r="F43" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>HOND-CR--2017-RED-042</v>
+      </c>
+      <c r="B44" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D44">
+        <v>68952</v>
+      </c>
+      <c r="E44">
+        <v>2017</v>
+      </c>
+      <c r="F44" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TESL-MOD-2018-BLU-043</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D45">
+        <v>72450</v>
+      </c>
+      <c r="E45">
+        <v>2018</v>
+      </c>
+      <c r="F45" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>BMW-3SE-2019-GRE-044</v>
+      </c>
+      <c r="B46" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C46" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D46">
+        <v>73839</v>
+      </c>
+      <c r="E46">
+        <v>2019</v>
+      </c>
+      <c r="F46" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>MERC-E-C-2020-YEL-045</v>
+      </c>
+      <c r="B47" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D47">
+        <v>71596</v>
+      </c>
+      <c r="E47">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>AUDI-Q5-2021-SIL-046</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D48">
+        <v>72870</v>
+      </c>
+      <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="F48" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>CHEV-TAH-2022-BLA-047</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D49">
+        <v>75282</v>
+      </c>
+      <c r="E49">
+        <v>2022</v>
+      </c>
+      <c r="F49" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>NISS-ALT-2023-WHI-048</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D50">
+        <v>75191</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>MAZD-CX--2024-RED-049</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D51">
+        <v>77537</v>
+      </c>
+      <c r="E51">
+        <v>2024</v>
+      </c>
+      <c r="F51" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TOYO-RAV-2015-BLU-050</v>
+      </c>
+      <c r="B52" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D52">
+        <v>79377</v>
+      </c>
+      <c r="E52">
+        <v>2015</v>
+      </c>
+      <c r="F52" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>FORD-BRO-2016-GRE-051</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D53">
+        <v>77616</v>
+      </c>
+      <c r="E53">
+        <v>2016</v>
+      </c>
+      <c r="F53" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>HOND-CIV-2017-YEL-052</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D54">
+        <v>78137</v>
+      </c>
+      <c r="E54">
+        <v>2017</v>
+      </c>
+      <c r="F54" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>TESL-MOD-2018-SIL-053</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D55">
+        <v>79395</v>
+      </c>
+      <c r="E55">
+        <v>2018</v>
+      </c>
+      <c r="F55" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>BMW-X5-2019-BLA-054</v>
+      </c>
+      <c r="B56" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C56" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D56">
+        <v>83569</v>
+      </c>
+      <c r="E56">
+        <v>2019</v>
+      </c>
+      <c r="F56" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MERC-GLA-2020-WHI-055</v>
+      </c>
+      <c r="B57" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D57">
+        <v>84502</v>
+      </c>
+      <c r="E57">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>AUDI-A4-2021-RED-056</v>
+      </c>
+      <c r="B58" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D58">
+        <v>81666</v>
+      </c>
+      <c r="E58">
+        <v>2021</v>
+      </c>
+      <c r="F58" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>CHEV-MAL-2022-BLU-057</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D59">
+        <v>86913</v>
+      </c>
+      <c r="E59">
+        <v>2022</v>
+      </c>
+      <c r="F59" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>NISS-SEN-2023-GRE-058</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D60">
+        <v>83637</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>MAZD-CX--2024-YEL-059</v>
+      </c>
+      <c r="B61" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D61">
+        <v>87721</v>
+      </c>
+      <c r="E61">
+        <v>2024</v>
+      </c>
+      <c r="F61" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>TOYO-CAM-2015-SIL-060</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D62">
+        <v>88792</v>
+      </c>
+      <c r="E62">
+        <v>2015</v>
+      </c>
+      <c r="F62" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>FORD-F-1-2016-BLA-061</v>
+      </c>
+      <c r="B63" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D63">
+        <v>87372</v>
+      </c>
+      <c r="E63">
+        <v>2016</v>
+      </c>
+      <c r="F63" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>HOND-CR--2017-WHI-062</v>
+      </c>
+      <c r="B64" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D64">
+        <v>90726</v>
+      </c>
+      <c r="E64">
+        <v>2017</v>
+      </c>
+      <c r="F64" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>TESL-MOD-2018-RED-063</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D65">
+        <v>90456</v>
+      </c>
+      <c r="E65">
+        <v>2018</v>
+      </c>
+      <c r="F65" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>BMW-3SE-2019-BLU-064</v>
+      </c>
+      <c r="B66" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C66" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D66">
+        <v>89124</v>
+      </c>
+      <c r="E66">
+        <v>2019</v>
+      </c>
+      <c r="F66" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>MERC-E-C-2020-GRE-065</v>
+      </c>
+      <c r="B67" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D67">
+        <v>94174</v>
+      </c>
+      <c r="E67">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>AUDI-Q5-2021-YEL-066</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D68">
+        <v>95472</v>
+      </c>
+      <c r="E68">
+        <v>2021</v>
+      </c>
+      <c r="F68" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>CHEV-TAH-2022-SIL-067</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D69">
+        <v>92243</v>
+      </c>
+      <c r="E69">
+        <v>2022</v>
+      </c>
+      <c r="F69" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>NISS-ALT-2023-BLA-068</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D70">
+        <v>94592</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>MAZD-CX--2024-WHI-069</v>
+      </c>
+      <c r="B71" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D71">
+        <v>94513</v>
+      </c>
+      <c r="E71">
+        <v>2024</v>
+      </c>
+      <c r="F71" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>TOYO-RAV-2015-RED-070</v>
+      </c>
+      <c r="B72" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D72">
+        <v>96731</v>
+      </c>
+      <c r="E72">
+        <v>2015</v>
+      </c>
+      <c r="F72" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>FORD-BRO-2016-BLU-071</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D73">
+        <v>100270</v>
+      </c>
+      <c r="E73">
+        <v>2016</v>
+      </c>
+      <c r="F73" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>HOND-CIV-2017-GRE-072</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D74">
+        <v>97273</v>
+      </c>
+      <c r="E74">
+        <v>2017</v>
+      </c>
+      <c r="F74" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>TESL-MOD-2018-YEL-073</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D75">
+        <v>101397</v>
+      </c>
+      <c r="E75">
+        <v>2018</v>
+      </c>
+      <c r="F75" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>BMW-X5-2019-SIL-074</v>
+      </c>
+      <c r="B76" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C76" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D76">
+        <v>102866</v>
+      </c>
+      <c r="E76">
+        <v>2019</v>
+      </c>
+      <c r="F76" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>MERC-GLA-2020-BLA-075</v>
+      </c>
+      <c r="B77" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D77">
+        <v>103013</v>
+      </c>
+      <c r="E77">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>AUDI-A4-2021-WHI-076</v>
+      </c>
+      <c r="B78" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D78">
+        <v>102251</v>
+      </c>
+      <c r="E78">
+        <v>2021</v>
+      </c>
+      <c r="F78" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>CHEV-MAL-2022-RED-077</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D79">
+        <v>105422</v>
+      </c>
+      <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="F79" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>NISS-SEN-2023-BLU-078</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D80">
+        <v>107707</v>
+      </c>
+      <c r="E80">
+        <v>2023</v>
+      </c>
+      <c r="F80" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>MAZD-CX--2024-GRE-079</v>
+      </c>
+      <c r="B81" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D81">
+        <v>107149</v>
+      </c>
+      <c r="E81">
+        <v>2024</v>
+      </c>
+      <c r="F81" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>TOYO-CAM-2015-YEL-080</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D82">
+        <v>105960</v>
+      </c>
+      <c r="E82">
+        <v>2015</v>
+      </c>
+      <c r="F82" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>FORD-F-1-2016-SIL-081</v>
+      </c>
+      <c r="B83" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D83">
+        <v>107867</v>
+      </c>
+      <c r="E83">
+        <v>2016</v>
+      </c>
+      <c r="F83" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>HOND-CR--2017-BLA-082</v>
+      </c>
+      <c r="B84" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D84">
+        <v>107686</v>
+      </c>
+      <c r="E84">
+        <v>2017</v>
+      </c>
+      <c r="F84" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>TESL-MOD-2018-WHI-083</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D85">
+        <v>111606</v>
+      </c>
+      <c r="E85">
+        <v>2018</v>
+      </c>
+      <c r="F85" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>BMW-3SE-2019-RED-084</v>
+      </c>
+      <c r="B86" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C86" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D86">
+        <v>109162</v>
+      </c>
+      <c r="E86">
+        <v>2019</v>
+      </c>
+      <c r="F86" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>MERC-E-C-2020-BLU-085</v>
+      </c>
+      <c r="B87" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D87">
+        <v>114373</v>
+      </c>
+      <c r="E87">
+        <v>2020</v>
+      </c>
+      <c r="F87" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>AUDI-Q5-2021-GRE-086</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D88">
+        <v>113903</v>
+      </c>
+      <c r="E88">
+        <v>2021</v>
+      </c>
+      <c r="F88" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>CHEV-TAH-2022-YEL-087</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D89">
+        <v>115687</v>
+      </c>
+      <c r="E89">
+        <v>2022</v>
+      </c>
+      <c r="F89" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>NISS-ALT-2023-SIL-088</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D90">
+        <v>113148</v>
+      </c>
+      <c r="E90">
+        <v>2023</v>
+      </c>
+      <c r="F90" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>MAZD-CX--2024-BLA-089</v>
+      </c>
+      <c r="B91" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D91">
+        <v>118128</v>
+      </c>
+      <c r="E91">
+        <v>2024</v>
+      </c>
+      <c r="F91" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>TOYO-RAV-2015-WHI-090</v>
+      </c>
+      <c r="B92" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D92">
+        <v>117775</v>
+      </c>
+      <c r="E92">
+        <v>2015</v>
+      </c>
+      <c r="F92" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>FORD-BRO-2016-RED-091</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D93">
+        <v>118970</v>
+      </c>
+      <c r="E93">
+        <v>2016</v>
+      </c>
+      <c r="F93" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>HOND-CIV-2017-BLU-092</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D94">
+        <v>119241</v>
+      </c>
+      <c r="E94">
+        <v>2017</v>
+      </c>
+      <c r="F94" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>TESL-MOD-2018-GRE-093</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D95">
+        <v>118376</v>
+      </c>
+      <c r="E95">
+        <v>2018</v>
+      </c>
+      <c r="F95" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>BMW-X5-2019-YEL-094</v>
+      </c>
+      <c r="B96" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C96" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D96">
+        <v>122774</v>
+      </c>
+      <c r="E96">
+        <v>2019</v>
+      </c>
+      <c r="F96" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>MERC-GLA-2020-SIL-095</v>
+      </c>
+      <c r="B97" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D97">
+        <v>122238</v>
+      </c>
+      <c r="E97">
+        <v>2020</v>
+      </c>
+      <c r="F97" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>AUDI-A4-2021-BLA-096</v>
+      </c>
+      <c r="B98" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D98">
+        <v>124938</v>
+      </c>
+      <c r="E98">
+        <v>2021</v>
+      </c>
+      <c r="F98" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>CHEV-MAL-2022-WHI-097</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D99">
+        <v>124318</v>
+      </c>
+      <c r="E99">
+        <v>2022</v>
+      </c>
+      <c r="F99" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>NISS-SEN-2023-RED-098</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D100">
+        <v>126969</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>MAZD-CX--2024-BLU-099</v>
+      </c>
+      <c r="B101" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D101">
+        <v>127766</v>
+      </c>
+      <c r="E101">
+        <v>2024</v>
+      </c>
+      <c r="F101" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>TOYO-CAM-2015-GRE-100</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D102">
+        <v>128101</v>
+      </c>
+      <c r="E102">
+        <v>2015</v>
+      </c>
+      <c r="F102" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>FORD-F-1-2016-YEL-101</v>
+      </c>
+      <c r="B103" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D103">
+        <v>126962</v>
+      </c>
+      <c r="E103">
+        <v>2016</v>
+      </c>
+      <c r="F103" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>HOND-CR--2017-SIL-102</v>
+      </c>
+      <c r="B104" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D104">
+        <v>131612</v>
+      </c>
+      <c r="E104">
+        <v>2017</v>
+      </c>
+      <c r="F104" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>TESL-MOD-2018-BLA-103</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D105">
+        <v>130303</v>
+      </c>
+      <c r="E105">
+        <v>2018</v>
+      </c>
+      <c r="F105" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>BMW-3SE-2019-WHI-104</v>
+      </c>
+      <c r="B106" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C106" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D106">
+        <v>129042</v>
+      </c>
+      <c r="E106">
+        <v>2019</v>
+      </c>
+      <c r="F106" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>MERC-E-C-2020-RED-105</v>
+      </c>
+      <c r="B107" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D107">
+        <v>134252</v>
+      </c>
+      <c r="E107">
+        <v>2020</v>
+      </c>
+      <c r="F107" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>AUDI-Q5-2021-BLU-106</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D108">
+        <v>135703</v>
+      </c>
+      <c r="E108">
+        <v>2021</v>
+      </c>
+      <c r="F108" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>CHEV-TAH-2022-GRE-107</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D109">
+        <v>132488</v>
+      </c>
+      <c r="E109">
+        <v>2022</v>
+      </c>
+      <c r="F109" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>NISS-ALT-2023-YEL-108</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D110">
+        <v>136575</v>
+      </c>
+      <c r="E110">
+        <v>2023</v>
+      </c>
+      <c r="F110" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>MAZD-CX--2024-SIL-109</v>
+      </c>
+      <c r="B111" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D111">
+        <v>135215</v>
+      </c>
+      <c r="E111">
+        <v>2024</v>
+      </c>
+      <c r="F111" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>TOYO-RAV-2015-BLA-110</v>
+      </c>
+      <c r="B112" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D112">
+        <v>139511</v>
+      </c>
+      <c r="E112">
+        <v>2015</v>
+      </c>
+      <c r="F112" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>FORD-BRO-2016-WHI-111</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D113">
+        <v>136173</v>
+      </c>
+      <c r="E113">
+        <v>2016</v>
+      </c>
+      <c r="F113" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>HOND-CIV-2017-RED-112</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D114">
+        <v>137803</v>
+      </c>
+      <c r="E114">
+        <v>2017</v>
+      </c>
+      <c r="F114" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>TESL-MOD-2018-BLU-113</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D115">
+        <v>142148</v>
+      </c>
+      <c r="E115">
+        <v>2018</v>
+      </c>
+      <c r="F115" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>BMW-X5-2019-GRE-114</v>
+      </c>
+      <c r="B116" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C116" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D116">
+        <v>141488</v>
+      </c>
+      <c r="E116">
+        <v>2019</v>
+      </c>
+      <c r="F116" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>MERC-GLA-2020-YEL-115</v>
+      </c>
+      <c r="B117" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D117">
+        <v>144613</v>
+      </c>
+      <c r="E117">
+        <v>2020</v>
+      </c>
+      <c r="F117" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>AUDI-A4-2021-SIL-116</v>
+      </c>
+      <c r="B118" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D118">
+        <v>141404</v>
+      </c>
+      <c r="E118">
+        <v>2021</v>
+      </c>
+      <c r="F118" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>CHEV-MAL-2022-BLA-117</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D119">
+        <v>146717</v>
+      </c>
+      <c r="E119">
+        <v>2022</v>
+      </c>
+      <c r="F119" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>NISS-SEN-2023-WHI-118</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D120">
+        <v>145623</v>
+      </c>
+      <c r="E120">
+        <v>2023</v>
+      </c>
+      <c r="F120" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>MAZD-CX--2024-RED-119</v>
+      </c>
+      <c r="B121" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D121">
+        <v>146491</v>
+      </c>
+      <c r="E121">
+        <v>2024</v>
+      </c>
+      <c r="F121" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>TOYO-CAM-2015-BLU-120</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D122">
+        <v>148810</v>
+      </c>
+      <c r="E122">
+        <v>2015</v>
+      </c>
+      <c r="F122" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>FORD-F-1-2016-GRE-121</v>
+      </c>
+      <c r="B123" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D123">
+        <v>147054</v>
+      </c>
+      <c r="E123">
+        <v>2016</v>
+      </c>
+      <c r="F123" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>HOND-CR--2017-YEL-122</v>
+      </c>
+      <c r="B124" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D124">
+        <v>151440</v>
+      </c>
+      <c r="E124">
+        <v>2017</v>
+      </c>
+      <c r="F124" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>TESL-MOD-2018-SIL-123</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D125">
+        <v>148761</v>
+      </c>
+      <c r="E125">
+        <v>2018</v>
+      </c>
+      <c r="F125" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>BMW-3SE-2019-BLA-124</v>
+      </c>
+      <c r="B126" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C126" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D126">
+        <v>153928</v>
+      </c>
+      <c r="E126">
+        <v>2019</v>
+      </c>
+      <c r="F126" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>MERC-E-C-2020-WHI-125</v>
+      </c>
+      <c r="B127" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D127">
+        <v>154177</v>
+      </c>
+      <c r="E127">
+        <v>2020</v>
+      </c>
+      <c r="F127" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>AUDI-Q5-2021-RED-126</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D128">
+        <v>154828</v>
+      </c>
+      <c r="E128">
+        <v>2021</v>
+      </c>
+      <c r="F128" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>CHEV-TAH-2022-BLU-127</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D129">
+        <v>156167</v>
+      </c>
+      <c r="E129">
+        <v>2022</v>
+      </c>
+      <c r="F129" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>NISS-ALT-2023-GRE-128</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D130">
+        <v>157280</v>
+      </c>
+      <c r="E130">
+        <v>2023</v>
+      </c>
+      <c r="F130" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>MAZD-CX--2024-YEL-129</v>
+      </c>
+      <c r="B131" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D131">
+        <v>154428</v>
+      </c>
+      <c r="E131">
+        <v>2024</v>
+      </c>
+      <c r="F131" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>TOYO-RAV-2015-SIL-130</v>
+      </c>
+      <c r="B132" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D132">
+        <v>159629</v>
+      </c>
+      <c r="E132">
+        <v>2015</v>
+      </c>
+      <c r="F132" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>FORD-BRO-2016-BLA-131</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D133">
+        <v>160409</v>
+      </c>
+      <c r="E133">
+        <v>2016</v>
+      </c>
+      <c r="F133" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>HOND-CIV-2017-WHI-132</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D134">
+        <v>158675</v>
+      </c>
+      <c r="E134">
+        <v>2017</v>
+      </c>
+      <c r="F134" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>TESL-MOD-2018-RED-133</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D135">
+        <v>162574</v>
+      </c>
+      <c r="E135">
+        <v>2018</v>
+      </c>
+      <c r="F135" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>BMW-X5-2019-BLU-134</v>
+      </c>
+      <c r="B136" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C136" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D136">
+        <v>159140</v>
+      </c>
+      <c r="E136">
+        <v>2019</v>
+      </c>
+      <c r="F136" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>MERC-GLA-2020-GRE-135</v>
+      </c>
+      <c r="B137" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D137">
+        <v>162324</v>
+      </c>
+      <c r="E137">
+        <v>2020</v>
+      </c>
+      <c r="F137" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>AUDI-A4-2021-YEL-136</v>
+      </c>
+      <c r="B138" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D138">
+        <v>162066</v>
+      </c>
+      <c r="E138">
+        <v>2021</v>
+      </c>
+      <c r="F138" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>CHEV-MAL-2022-SIL-137</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D139">
+        <v>165432</v>
+      </c>
+      <c r="E139">
+        <v>2022</v>
+      </c>
+      <c r="F139" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>NISS-SEN-2023-BLA-138</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D140">
+        <v>164960</v>
+      </c>
+      <c r="E140">
+        <v>2023</v>
+      </c>
+      <c r="F140" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>MAZD-CX--2024-WHI-139</v>
+      </c>
+      <c r="B141" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D141">
+        <v>166181</v>
+      </c>
+      <c r="E141">
+        <v>2024</v>
+      </c>
+      <c r="F141" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>TOYO-CAM-2015-RED-140</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D142">
+        <v>167593</v>
+      </c>
+      <c r="E142">
+        <v>2015</v>
+      </c>
+      <c r="F142" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>FORD-F-1-2016-BLU-141</v>
+      </c>
+      <c r="B143" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D143">
+        <v>168203</v>
+      </c>
+      <c r="E143">
+        <v>2016</v>
+      </c>
+      <c r="F143" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>HOND-CR--2017-GRE-142</v>
+      </c>
+      <c r="B144" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D144">
+        <v>167934</v>
+      </c>
+      <c r="E144">
+        <v>2017</v>
+      </c>
+      <c r="F144" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>TESL-MOD-2018-YEL-143</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D145">
+        <v>172104</v>
+      </c>
+      <c r="E145">
+        <v>2018</v>
+      </c>
+      <c r="F145" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>BMW-3SE-2019-SIL-144</v>
+      </c>
+      <c r="B146" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C146" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D146">
+        <v>171375</v>
+      </c>
+      <c r="E146">
+        <v>2019</v>
+      </c>
+      <c r="F146" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>MERC-E-C-2020-BLA-145</v>
+      </c>
+      <c r="B147" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D147">
+        <v>170612</v>
+      </c>
+      <c r="E147">
+        <v>2020</v>
+      </c>
+      <c r="F147" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>AUDI-Q5-2021-WHI-146</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D148">
+        <v>171612</v>
+      </c>
+      <c r="E148">
+        <v>2021</v>
+      </c>
+      <c r="F148" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>CHEV-TAH-2022-RED-147</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D149">
+        <v>173701</v>
+      </c>
+      <c r="E149">
+        <v>2022</v>
+      </c>
+      <c r="F149" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>NISS-ALT-2023-BLU-148</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D150">
+        <v>176205</v>
+      </c>
+      <c r="E150">
+        <v>2023</v>
+      </c>
+      <c r="F150" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>MAZD-CX--2024-GRE-149</v>
+      </c>
+      <c r="B151" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D151">
+        <v>174710</v>
+      </c>
+      <c r="E151">
+        <v>2024</v>
+      </c>
+      <c r="F151" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>TOYO-RAV-2015-YEL-150</v>
+      </c>
+      <c r="B152" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D152">
+        <v>178477</v>
+      </c>
+      <c r="E152">
+        <v>2015</v>
+      </c>
+      <c r="F152" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>FORD-BRO-2016-SIL-151</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D153">
+        <v>180584</v>
+      </c>
+      <c r="E153">
+        <v>2016</v>
+      </c>
+      <c r="F153" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>HOND-CIV-2017-BLA-152</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D154">
+        <v>178398</v>
+      </c>
+      <c r="E154">
+        <v>2017</v>
+      </c>
+      <c r="F154" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>TESL-MOD-2018-WHI-153</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D155">
+        <v>180695</v>
+      </c>
+      <c r="E155">
+        <v>2018</v>
+      </c>
+      <c r="F155" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>BMW-X5-2019-RED-154</v>
+      </c>
+      <c r="B156" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C156" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D156">
+        <v>179167</v>
+      </c>
+      <c r="E156">
+        <v>2019</v>
+      </c>
+      <c r="F156" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>MERC-GLA-2020-BLU-155</v>
+      </c>
+      <c r="B157" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D157">
+        <v>184586</v>
+      </c>
+      <c r="E157">
+        <v>2020</v>
+      </c>
+      <c r="F157" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>AUDI-A4-2021-GRE-156</v>
+      </c>
+      <c r="B158" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D158">
+        <v>185169</v>
+      </c>
+      <c r="E158">
+        <v>2021</v>
+      </c>
+      <c r="F158" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>CHEV-MAL-2022-YEL-157</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D159">
+        <v>182196</v>
+      </c>
+      <c r="E159">
+        <v>2022</v>
+      </c>
+      <c r="F159" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>NISS-SEN-2023-SIL-158</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D160">
+        <v>187225</v>
+      </c>
+      <c r="E160">
+        <v>2023</v>
+      </c>
+      <c r="F160" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>MAZD-CX--2024-BLA-159</v>
+      </c>
+      <c r="B161" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D161">
+        <v>186133</v>
+      </c>
+      <c r="E161">
+        <v>2024</v>
+      </c>
+      <c r="F161" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>TOYO-CAM-2015-WHI-160</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D162">
+        <v>188682</v>
+      </c>
+      <c r="E162">
+        <v>2015</v>
+      </c>
+      <c r="F162" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>FORD-F-1-2016-RED-161</v>
+      </c>
+      <c r="B163" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D163">
+        <v>190606</v>
+      </c>
+      <c r="E163">
+        <v>2016</v>
+      </c>
+      <c r="F163" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>HOND-CR--2017-BLU-162</v>
+      </c>
+      <c r="B164" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D164">
+        <v>189503</v>
+      </c>
+      <c r="E164">
+        <v>2017</v>
+      </c>
+      <c r="F164" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>TESL-MOD-2018-GRE-163</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D165">
+        <v>191777</v>
+      </c>
+      <c r="E165">
+        <v>2018</v>
+      </c>
+      <c r="F165" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>BMW-3SE-2019-YEL-164</v>
+      </c>
+      <c r="B166" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C166" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D166">
+        <v>193028</v>
+      </c>
+      <c r="E166">
+        <v>2019</v>
+      </c>
+      <c r="F166" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>MERC-E-C-2020-SIL-165</v>
+      </c>
+      <c r="B167" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D167">
+        <v>192421</v>
+      </c>
+      <c r="E167">
+        <v>2020</v>
+      </c>
+      <c r="F167" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>AUDI-Q5-2021-BLA-166</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D168">
+        <v>195376</v>
+      </c>
+      <c r="E168">
+        <v>2021</v>
+      </c>
+      <c r="F168" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>CHEV-TAH-2022-WHI-167</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D169">
+        <v>192911</v>
+      </c>
+      <c r="E169">
+        <v>2022</v>
+      </c>
+      <c r="F169" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>NISS-ALT-2023-RED-168</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D170">
+        <v>195293</v>
+      </c>
+      <c r="E170">
+        <v>2023</v>
+      </c>
+      <c r="F170" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>MAZD-CX--2024-BLU-169</v>
+      </c>
+      <c r="B171" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D171">
+        <v>194729</v>
+      </c>
+      <c r="E171">
+        <v>2024</v>
+      </c>
+      <c r="F171" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>TOYO-RAV-2015-GRE-170</v>
+      </c>
+      <c r="B172" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D172">
+        <v>195936</v>
+      </c>
+      <c r="E172">
+        <v>2015</v>
+      </c>
+      <c r="F172" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>FORD-BRO-2016-YEL-171</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D173">
+        <v>200137</v>
+      </c>
+      <c r="E173">
+        <v>2016</v>
+      </c>
+      <c r="F173" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>HOND-CIV-2017-SIL-172</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D174">
+        <v>198212</v>
+      </c>
+      <c r="E174">
+        <v>2017</v>
+      </c>
+      <c r="F174" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>TESL-MOD-2018-BLA-173</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D175">
+        <v>200506</v>
+      </c>
+      <c r="E175">
+        <v>2018</v>
+      </c>
+      <c r="F175" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>BMW-X5-2019-WHI-174</v>
+      </c>
+      <c r="B176" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C176" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D176">
+        <v>201080</v>
+      </c>
+      <c r="E176">
+        <v>2019</v>
+      </c>
+      <c r="F176" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>MERC-GLA-2020-RED-175</v>
+      </c>
+      <c r="B177" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D177">
+        <v>203276</v>
+      </c>
+      <c r="E177">
+        <v>2020</v>
+      </c>
+      <c r="F177" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>AUDI-A4-2021-BLU-176</v>
+      </c>
+      <c r="B178" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D178">
+        <v>204795</v>
+      </c>
+      <c r="E178">
+        <v>2021</v>
+      </c>
+      <c r="F178" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>CHEV-MAL-2022-GRE-177</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D179">
+        <v>206775</v>
+      </c>
+      <c r="E179">
+        <v>2022</v>
+      </c>
+      <c r="F179" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>NISS-SEN-2023-YEL-178</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D180">
+        <v>203344</v>
+      </c>
+      <c r="E180">
+        <v>2023</v>
+      </c>
+      <c r="F180" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>MAZD-CX--2024-SIL-179</v>
+      </c>
+      <c r="B181" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D181">
+        <v>205287</v>
+      </c>
+      <c r="E181">
+        <v>2024</v>
+      </c>
+      <c r="F181" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>TOYO-CAM-2015-BLA-180</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D182">
+        <v>208186</v>
+      </c>
+      <c r="E182">
+        <v>2015</v>
+      </c>
+      <c r="F182" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>FORD-F-1-2016-WHI-181</v>
+      </c>
+      <c r="B183" t="str">
+        <v>F-150</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D183">
+        <v>206221</v>
+      </c>
+      <c r="E183">
+        <v>2016</v>
+      </c>
+      <c r="F183" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>HOND-CR--2017-RED-182</v>
+      </c>
+      <c r="B184" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D184">
+        <v>210168</v>
+      </c>
+      <c r="E184">
+        <v>2017</v>
+      </c>
+      <c r="F184" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>TESL-MOD-2018-BLU-183</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Model Y</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D185">
+        <v>208063</v>
+      </c>
+      <c r="E185">
+        <v>2018</v>
+      </c>
+      <c r="F185" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>BMW-3SE-2019-GRE-184</v>
+      </c>
+      <c r="B186" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="C186" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D186">
+        <v>209794</v>
+      </c>
+      <c r="E186">
+        <v>2019</v>
+      </c>
+      <c r="F186" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>MERC-E-C-2020-YEL-185</v>
+      </c>
+      <c r="B187" t="str">
+        <v>E-Class</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D187">
+        <v>212703</v>
+      </c>
+      <c r="E187">
+        <v>2020</v>
+      </c>
+      <c r="F187" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>AUDI-Q5-2021-SIL-186</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D188">
+        <v>213672</v>
+      </c>
+      <c r="E188">
+        <v>2021</v>
+      </c>
+      <c r="F188" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>CHEV-TAH-2022-BLA-187</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D189">
+        <v>214427</v>
+      </c>
+      <c r="E189">
+        <v>2022</v>
+      </c>
+      <c r="F189" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>NISS-ALT-2023-WHI-188</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D190">
+        <v>217770</v>
+      </c>
+      <c r="E190">
+        <v>2023</v>
+      </c>
+      <c r="F190" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>MAZD-CX--2024-RED-189</v>
+      </c>
+      <c r="B191" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D191">
+        <v>216410</v>
+      </c>
+      <c r="E191">
+        <v>2024</v>
+      </c>
+      <c r="F191" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>TOYO-RAV-2015-BLU-190</v>
+      </c>
+      <c r="B192" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="D192">
+        <v>219290</v>
+      </c>
+      <c r="E192">
+        <v>2015</v>
+      </c>
+      <c r="F192" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>FORD-BRO-2016-GRE-191</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Bronco</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Ford</v>
+      </c>
+      <c r="D193">
+        <v>217991</v>
+      </c>
+      <c r="E193">
+        <v>2016</v>
+      </c>
+      <c r="F193" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>HOND-CIV-2017-YEL-192</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="D194">
+        <v>220159</v>
+      </c>
+      <c r="E194">
+        <v>2017</v>
+      </c>
+      <c r="F194" t="str">
+        <v>silver</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>TESL-MOD-2018-SIL-193</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Model S</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="D195">
+        <v>222690</v>
+      </c>
+      <c r="E195">
+        <v>2018</v>
+      </c>
+      <c r="F195" t="str">
+        <v>black</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>BMW-X5-2019-BLA-194</v>
+      </c>
+      <c r="B196" t="str">
+        <v>X5</v>
+      </c>
+      <c r="C196" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="D196">
+        <v>220218</v>
+      </c>
+      <c r="E196">
+        <v>2019</v>
+      </c>
+      <c r="F196" t="str">
+        <v>white</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>MERC-GLA-2020-WHI-195</v>
+      </c>
+      <c r="B197" t="str">
+        <v>GLA</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Mercedes</v>
+      </c>
+      <c r="D197">
+        <v>223977</v>
+      </c>
+      <c r="E197">
+        <v>2020</v>
+      </c>
+      <c r="F197" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>AUDI-A4-2021-RED-196</v>
+      </c>
+      <c r="B198" t="str">
+        <v>A4</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="D198">
+        <v>225407</v>
+      </c>
+      <c r="E198">
+        <v>2021</v>
+      </c>
+      <c r="F198" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>CHEV-MAL-2022-BLU-197</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="D199">
+        <v>225051</v>
+      </c>
+      <c r="E199">
+        <v>2022</v>
+      </c>
+      <c r="F199" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>NISS-SEN-2023-GRE-198</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="D200">
+        <v>226195</v>
+      </c>
+      <c r="E200">
+        <v>2023</v>
+      </c>
+      <c r="F200" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>MAZD-CX--2024-YEL-199</v>
+      </c>
+      <c r="B201" t="str">
+        <v>CX-9</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="D201">
+        <v>224376</v>
+      </c>
+      <c r="E201">
+        <v>2024</v>
+      </c>
+      <c r="F201" t="str">
+        <v>silver</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F201"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/cars-valid-update.xlsx
+++ b/test-data/cars-valid-update.xlsx
@@ -433,7 +433,7 @@
         <v>Toyota</v>
       </c>
       <c r="D2">
-        <v>25742</v>
+        <v>26544</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -453,7 +453,7 @@
         <v>Ford</v>
       </c>
       <c r="D3">
-        <v>30099</v>
+        <v>29736</v>
       </c>
       <c r="E3">
         <v>2016</v>
@@ -473,7 +473,7 @@
         <v>Honda</v>
       </c>
       <c r="D4">
-        <v>31014</v>
+        <v>30961</v>
       </c>
       <c r="E4">
         <v>2017</v>
@@ -493,7 +493,7 @@
         <v>Tesla</v>
       </c>
       <c r="D5">
-        <v>32215</v>
+        <v>29142</v>
       </c>
       <c r="E5">
         <v>2018</v>
@@ -513,7 +513,7 @@
         <v>BMW</v>
       </c>
       <c r="D6">
-        <v>33267</v>
+        <v>30274</v>
       </c>
       <c r="E6">
         <v>2019</v>
@@ -533,7 +533,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D7">
-        <v>30109</v>
+        <v>31875</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -553,7 +553,7 @@
         <v>Audi</v>
       </c>
       <c r="D8">
-        <v>32856</v>
+        <v>33936</v>
       </c>
       <c r="E8">
         <v>2021</v>
@@ -573,7 +573,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D9">
-        <v>36413</v>
+        <v>32612</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -593,7 +593,7 @@
         <v>Nissan</v>
       </c>
       <c r="D10">
-        <v>34948</v>
+        <v>33962</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -613,7 +613,7 @@
         <v>Mazda</v>
       </c>
       <c r="D11">
-        <v>35057</v>
+        <v>37349</v>
       </c>
       <c r="E11">
         <v>2024</v>
@@ -633,7 +633,7 @@
         <v>Toyota</v>
       </c>
       <c r="D12">
-        <v>37062</v>
+        <v>38967</v>
       </c>
       <c r="E12">
         <v>2015</v>
@@ -653,7 +653,7 @@
         <v>Ford</v>
       </c>
       <c r="D13">
-        <v>39200</v>
+        <v>37941</v>
       </c>
       <c r="E13">
         <v>2016</v>
@@ -673,7 +673,7 @@
         <v>Honda</v>
       </c>
       <c r="D14">
-        <v>37566</v>
+        <v>38588</v>
       </c>
       <c r="E14">
         <v>2017</v>
@@ -693,7 +693,7 @@
         <v>Tesla</v>
       </c>
       <c r="D15">
-        <v>40236</v>
+        <v>40319</v>
       </c>
       <c r="E15">
         <v>2018</v>
@@ -713,7 +713,7 @@
         <v>BMW</v>
       </c>
       <c r="D16">
-        <v>40230</v>
+        <v>41933</v>
       </c>
       <c r="E16">
         <v>2019</v>
@@ -733,7 +733,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D17">
-        <v>41178</v>
+        <v>42008</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -753,7 +753,7 @@
         <v>Audi</v>
       </c>
       <c r="D18">
-        <v>45981</v>
+        <v>42974</v>
       </c>
       <c r="E18">
         <v>2021</v>
@@ -773,7 +773,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D19">
-        <v>45142</v>
+        <v>45178</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -793,7 +793,7 @@
         <v>Nissan</v>
       </c>
       <c r="D20">
-        <v>46974</v>
+        <v>46390</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -813,7 +813,7 @@
         <v>Mazda</v>
       </c>
       <c r="D21">
-        <v>47124</v>
+        <v>47661</v>
       </c>
       <c r="E21">
         <v>2024</v>
@@ -833,7 +833,7 @@
         <v>Toyota</v>
       </c>
       <c r="D22">
-        <v>45298</v>
+        <v>47053</v>
       </c>
       <c r="E22">
         <v>2015</v>
@@ -853,7 +853,7 @@
         <v>Ford</v>
       </c>
       <c r="D23">
-        <v>49514</v>
+        <v>48203</v>
       </c>
       <c r="E23">
         <v>2016</v>
@@ -873,7 +873,7 @@
         <v>Honda</v>
       </c>
       <c r="D24">
-        <v>47052</v>
+        <v>50881</v>
       </c>
       <c r="E24">
         <v>2017</v>
@@ -893,7 +893,7 @@
         <v>Tesla</v>
       </c>
       <c r="D25">
-        <v>51911</v>
+        <v>52097</v>
       </c>
       <c r="E25">
         <v>2018</v>
@@ -913,7 +913,7 @@
         <v>BMW</v>
       </c>
       <c r="D26">
-        <v>51074</v>
+        <v>51299</v>
       </c>
       <c r="E26">
         <v>2019</v>
@@ -933,7 +933,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D27">
-        <v>51706</v>
+        <v>50641</v>
       </c>
       <c r="E27">
         <v>2020</v>
@@ -953,7 +953,7 @@
         <v>Audi</v>
       </c>
       <c r="D28">
-        <v>53596</v>
+        <v>53405</v>
       </c>
       <c r="E28">
         <v>2021</v>
@@ -973,7 +973,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D29">
-        <v>55793</v>
+        <v>53410</v>
       </c>
       <c r="E29">
         <v>2022</v>
@@ -993,7 +993,7 @@
         <v>Nissan</v>
       </c>
       <c r="D30">
-        <v>54388</v>
+        <v>55117</v>
       </c>
       <c r="E30">
         <v>2023</v>
@@ -1013,7 +1013,7 @@
         <v>Mazda</v>
       </c>
       <c r="D31">
-        <v>54192</v>
+        <v>57815</v>
       </c>
       <c r="E31">
         <v>2024</v>
@@ -1033,7 +1033,7 @@
         <v>Toyota</v>
       </c>
       <c r="D32">
-        <v>55886</v>
+        <v>59637</v>
       </c>
       <c r="E32">
         <v>2015</v>
@@ -1053,7 +1053,7 @@
         <v>Ford</v>
       </c>
       <c r="D33">
-        <v>57543</v>
+        <v>58309</v>
       </c>
       <c r="E33">
         <v>2016</v>
@@ -1073,7 +1073,7 @@
         <v>Honda</v>
       </c>
       <c r="D34">
-        <v>57656</v>
+        <v>61872</v>
       </c>
       <c r="E34">
         <v>2017</v>
@@ -1093,7 +1093,7 @@
         <v>Tesla</v>
       </c>
       <c r="D35">
-        <v>58649</v>
+        <v>58951</v>
       </c>
       <c r="E35">
         <v>2018</v>
@@ -1113,7 +1113,7 @@
         <v>BMW</v>
       </c>
       <c r="D36">
-        <v>61961</v>
+        <v>62093</v>
       </c>
       <c r="E36">
         <v>2019</v>
@@ -1133,7 +1133,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D37">
-        <v>61689</v>
+        <v>64789</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -1153,7 +1153,7 @@
         <v>Audi</v>
       </c>
       <c r="D38">
-        <v>62702</v>
+        <v>61277</v>
       </c>
       <c r="E38">
         <v>2021</v>
@@ -1173,7 +1173,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D39">
-        <v>63099</v>
+        <v>65206</v>
       </c>
       <c r="E39">
         <v>2022</v>
@@ -1193,7 +1193,7 @@
         <v>Nissan</v>
       </c>
       <c r="D40">
-        <v>63742</v>
+        <v>65563</v>
       </c>
       <c r="E40">
         <v>2023</v>
@@ -1213,7 +1213,7 @@
         <v>Mazda</v>
       </c>
       <c r="D41">
-        <v>65516</v>
+        <v>64443</v>
       </c>
       <c r="E41">
         <v>2024</v>
@@ -1233,7 +1233,7 @@
         <v>Toyota</v>
       </c>
       <c r="D42">
-        <v>66680</v>
+        <v>69181</v>
       </c>
       <c r="E42">
         <v>2015</v>
@@ -1253,7 +1253,7 @@
         <v>Ford</v>
       </c>
       <c r="D43">
-        <v>70349</v>
+        <v>69310</v>
       </c>
       <c r="E43">
         <v>2016</v>
@@ -1273,7 +1273,7 @@
         <v>Honda</v>
       </c>
       <c r="D44">
-        <v>68952</v>
+        <v>67619</v>
       </c>
       <c r="E44">
         <v>2017</v>
@@ -1293,7 +1293,7 @@
         <v>Tesla</v>
       </c>
       <c r="D45">
-        <v>72450</v>
+        <v>70410</v>
       </c>
       <c r="E45">
         <v>2018</v>
@@ -1313,7 +1313,7 @@
         <v>BMW</v>
       </c>
       <c r="D46">
-        <v>73839</v>
+        <v>72491</v>
       </c>
       <c r="E46">
         <v>2019</v>
@@ -1333,7 +1333,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D47">
-        <v>71596</v>
+        <v>73381</v>
       </c>
       <c r="E47">
         <v>2020</v>
@@ -1353,7 +1353,7 @@
         <v>Audi</v>
       </c>
       <c r="D48">
-        <v>72870</v>
+        <v>75624</v>
       </c>
       <c r="E48">
         <v>2021</v>
@@ -1373,7 +1373,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D49">
-        <v>75282</v>
+        <v>75837</v>
       </c>
       <c r="E49">
         <v>2022</v>
@@ -1393,7 +1393,7 @@
         <v>Nissan</v>
       </c>
       <c r="D50">
-        <v>75191</v>
+        <v>77280</v>
       </c>
       <c r="E50">
         <v>2023</v>
@@ -1413,7 +1413,7 @@
         <v>Mazda</v>
       </c>
       <c r="D51">
-        <v>77537</v>
+        <v>76716</v>
       </c>
       <c r="E51">
         <v>2024</v>
@@ -1433,7 +1433,7 @@
         <v>Toyota</v>
       </c>
       <c r="D52">
-        <v>79377</v>
+        <v>76491</v>
       </c>
       <c r="E52">
         <v>2015</v>
@@ -1453,7 +1453,7 @@
         <v>Ford</v>
       </c>
       <c r="D53">
-        <v>77616</v>
+        <v>78279</v>
       </c>
       <c r="E53">
         <v>2016</v>
@@ -1473,7 +1473,7 @@
         <v>Honda</v>
       </c>
       <c r="D54">
-        <v>78137</v>
+        <v>81831</v>
       </c>
       <c r="E54">
         <v>2017</v>
@@ -1493,7 +1493,7 @@
         <v>Tesla</v>
       </c>
       <c r="D55">
-        <v>79395</v>
+        <v>81410</v>
       </c>
       <c r="E55">
         <v>2018</v>
@@ -1513,7 +1513,7 @@
         <v>BMW</v>
       </c>
       <c r="D56">
-        <v>83569</v>
+        <v>83194</v>
       </c>
       <c r="E56">
         <v>2019</v>
@@ -1533,7 +1533,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D57">
-        <v>84502</v>
+        <v>84667</v>
       </c>
       <c r="E57">
         <v>2020</v>
@@ -1553,7 +1553,7 @@
         <v>Audi</v>
       </c>
       <c r="D58">
-        <v>81666</v>
+        <v>82960</v>
       </c>
       <c r="E58">
         <v>2021</v>
@@ -1573,7 +1573,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D59">
-        <v>86913</v>
+        <v>83435</v>
       </c>
       <c r="E59">
         <v>2022</v>
@@ -1593,7 +1593,7 @@
         <v>Nissan</v>
       </c>
       <c r="D60">
-        <v>83637</v>
+        <v>87398</v>
       </c>
       <c r="E60">
         <v>2023</v>
@@ -1613,7 +1613,7 @@
         <v>Mazda</v>
       </c>
       <c r="D61">
-        <v>87721</v>
+        <v>88089</v>
       </c>
       <c r="E61">
         <v>2024</v>
@@ -1633,7 +1633,7 @@
         <v>Toyota</v>
       </c>
       <c r="D62">
-        <v>88792</v>
+        <v>86568</v>
       </c>
       <c r="E62">
         <v>2015</v>
@@ -1653,7 +1653,7 @@
         <v>Ford</v>
       </c>
       <c r="D63">
-        <v>87372</v>
+        <v>89929</v>
       </c>
       <c r="E63">
         <v>2016</v>
@@ -1673,7 +1673,7 @@
         <v>Honda</v>
       </c>
       <c r="D64">
-        <v>90726</v>
+        <v>89277</v>
       </c>
       <c r="E64">
         <v>2017</v>
@@ -1693,7 +1693,7 @@
         <v>Tesla</v>
       </c>
       <c r="D65">
-        <v>90456</v>
+        <v>91914</v>
       </c>
       <c r="E65">
         <v>2018</v>
@@ -1713,7 +1713,7 @@
         <v>BMW</v>
       </c>
       <c r="D66">
-        <v>89124</v>
+        <v>92554</v>
       </c>
       <c r="E66">
         <v>2019</v>
@@ -1733,7 +1733,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D67">
-        <v>94174</v>
+        <v>92104</v>
       </c>
       <c r="E67">
         <v>2020</v>
@@ -1753,7 +1753,7 @@
         <v>Audi</v>
       </c>
       <c r="D68">
-        <v>95472</v>
+        <v>94188</v>
       </c>
       <c r="E68">
         <v>2021</v>
@@ -1773,7 +1773,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D69">
-        <v>92243</v>
+        <v>92165</v>
       </c>
       <c r="E69">
         <v>2022</v>
@@ -1793,7 +1793,7 @@
         <v>Nissan</v>
       </c>
       <c r="D70">
-        <v>94592</v>
+        <v>96781</v>
       </c>
       <c r="E70">
         <v>2023</v>
@@ -1813,7 +1813,7 @@
         <v>Mazda</v>
       </c>
       <c r="D71">
-        <v>94513</v>
+        <v>95003</v>
       </c>
       <c r="E71">
         <v>2024</v>
@@ -1833,7 +1833,7 @@
         <v>Toyota</v>
       </c>
       <c r="D72">
-        <v>96731</v>
+        <v>96644</v>
       </c>
       <c r="E72">
         <v>2015</v>
@@ -1853,7 +1853,7 @@
         <v>Ford</v>
       </c>
       <c r="D73">
-        <v>100270</v>
+        <v>97305</v>
       </c>
       <c r="E73">
         <v>2016</v>
@@ -1873,7 +1873,7 @@
         <v>Honda</v>
       </c>
       <c r="D74">
-        <v>97273</v>
+        <v>100942</v>
       </c>
       <c r="E74">
         <v>2017</v>
@@ -1893,7 +1893,7 @@
         <v>Tesla</v>
       </c>
       <c r="D75">
-        <v>101397</v>
+        <v>100324</v>
       </c>
       <c r="E75">
         <v>2018</v>
@@ -1913,7 +1913,7 @@
         <v>BMW</v>
       </c>
       <c r="D76">
-        <v>102866</v>
+        <v>102905</v>
       </c>
       <c r="E76">
         <v>2019</v>
@@ -1933,7 +1933,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D77">
-        <v>103013</v>
+        <v>100956</v>
       </c>
       <c r="E77">
         <v>2020</v>
@@ -1953,7 +1953,7 @@
         <v>Audi</v>
       </c>
       <c r="D78">
-        <v>102251</v>
+        <v>104639</v>
       </c>
       <c r="E78">
         <v>2021</v>
@@ -1973,7 +1973,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D79">
-        <v>105422</v>
+        <v>104391</v>
       </c>
       <c r="E79">
         <v>2022</v>
@@ -1993,7 +1993,7 @@
         <v>Nissan</v>
       </c>
       <c r="D80">
-        <v>107707</v>
+        <v>104272</v>
       </c>
       <c r="E80">
         <v>2023</v>
@@ -2013,7 +2013,7 @@
         <v>Mazda</v>
       </c>
       <c r="D81">
-        <v>107149</v>
+        <v>108349</v>
       </c>
       <c r="E81">
         <v>2024</v>
@@ -2033,7 +2033,7 @@
         <v>Toyota</v>
       </c>
       <c r="D82">
-        <v>105960</v>
+        <v>109614</v>
       </c>
       <c r="E82">
         <v>2015</v>
@@ -2053,7 +2053,7 @@
         <v>Ford</v>
       </c>
       <c r="D83">
-        <v>107867</v>
+        <v>107069</v>
       </c>
       <c r="E83">
         <v>2016</v>
@@ -2073,7 +2073,7 @@
         <v>Honda</v>
       </c>
       <c r="D84">
-        <v>107686</v>
+        <v>111840</v>
       </c>
       <c r="E84">
         <v>2017</v>
@@ -2093,7 +2093,7 @@
         <v>Tesla</v>
       </c>
       <c r="D85">
-        <v>111606</v>
+        <v>110013</v>
       </c>
       <c r="E85">
         <v>2018</v>
@@ -2113,7 +2113,7 @@
         <v>BMW</v>
       </c>
       <c r="D86">
-        <v>109162</v>
+        <v>113686</v>
       </c>
       <c r="E86">
         <v>2019</v>
@@ -2133,7 +2133,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D87">
-        <v>114373</v>
+        <v>112895</v>
       </c>
       <c r="E87">
         <v>2020</v>
@@ -2153,7 +2153,7 @@
         <v>Audi</v>
       </c>
       <c r="D88">
-        <v>113903</v>
+        <v>112274</v>
       </c>
       <c r="E88">
         <v>2021</v>
@@ -2173,7 +2173,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D89">
-        <v>115687</v>
+        <v>112739</v>
       </c>
       <c r="E89">
         <v>2022</v>
@@ -2193,7 +2193,7 @@
         <v>Nissan</v>
       </c>
       <c r="D90">
-        <v>113148</v>
+        <v>115934</v>
       </c>
       <c r="E90">
         <v>2023</v>
@@ -2213,7 +2213,7 @@
         <v>Mazda</v>
       </c>
       <c r="D91">
-        <v>118128</v>
+        <v>117105</v>
       </c>
       <c r="E91">
         <v>2024</v>
@@ -2233,7 +2233,7 @@
         <v>Toyota</v>
       </c>
       <c r="D92">
-        <v>117775</v>
+        <v>117600</v>
       </c>
       <c r="E92">
         <v>2015</v>
@@ -2253,7 +2253,7 @@
         <v>Ford</v>
       </c>
       <c r="D93">
-        <v>118970</v>
+        <v>116004</v>
       </c>
       <c r="E93">
         <v>2016</v>
@@ -2273,7 +2273,7 @@
         <v>Honda</v>
       </c>
       <c r="D94">
-        <v>119241</v>
+        <v>119646</v>
       </c>
       <c r="E94">
         <v>2017</v>
@@ -2293,7 +2293,7 @@
         <v>Tesla</v>
       </c>
       <c r="D95">
-        <v>118376</v>
+        <v>122157</v>
       </c>
       <c r="E95">
         <v>2018</v>
@@ -2313,7 +2313,7 @@
         <v>BMW</v>
       </c>
       <c r="D96">
-        <v>122774</v>
+        <v>123492</v>
       </c>
       <c r="E96">
         <v>2019</v>
@@ -2333,7 +2333,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D97">
-        <v>122238</v>
+        <v>121595</v>
       </c>
       <c r="E97">
         <v>2020</v>
@@ -2353,7 +2353,7 @@
         <v>Audi</v>
       </c>
       <c r="D98">
-        <v>124938</v>
+        <v>122229</v>
       </c>
       <c r="E98">
         <v>2021</v>
@@ -2373,7 +2373,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D99">
-        <v>124318</v>
+        <v>124076</v>
       </c>
       <c r="E99">
         <v>2022</v>
@@ -2393,7 +2393,7 @@
         <v>Nissan</v>
       </c>
       <c r="D100">
-        <v>126969</v>
+        <v>125599</v>
       </c>
       <c r="E100">
         <v>2023</v>
@@ -2413,7 +2413,7 @@
         <v>Mazda</v>
       </c>
       <c r="D101">
-        <v>127766</v>
+        <v>126435</v>
       </c>
       <c r="E101">
         <v>2024</v>
@@ -2433,7 +2433,7 @@
         <v>Toyota</v>
       </c>
       <c r="D102">
-        <v>128101</v>
+        <v>126260</v>
       </c>
       <c r="E102">
         <v>2015</v>
@@ -2453,7 +2453,7 @@
         <v>Ford</v>
       </c>
       <c r="D103">
-        <v>126962</v>
+        <v>129303</v>
       </c>
       <c r="E103">
         <v>2016</v>
@@ -2473,7 +2473,7 @@
         <v>Honda</v>
       </c>
       <c r="D104">
-        <v>131612</v>
+        <v>129179</v>
       </c>
       <c r="E104">
         <v>2017</v>
@@ -2493,7 +2493,7 @@
         <v>Tesla</v>
       </c>
       <c r="D105">
-        <v>130303</v>
+        <v>130520</v>
       </c>
       <c r="E105">
         <v>2018</v>
@@ -2513,7 +2513,7 @@
         <v>BMW</v>
       </c>
       <c r="D106">
-        <v>129042</v>
+        <v>132155</v>
       </c>
       <c r="E106">
         <v>2019</v>
@@ -2533,7 +2533,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D107">
-        <v>134252</v>
+        <v>132531</v>
       </c>
       <c r="E107">
         <v>2020</v>
@@ -2553,7 +2553,7 @@
         <v>Audi</v>
       </c>
       <c r="D108">
-        <v>135703</v>
+        <v>133367</v>
       </c>
       <c r="E108">
         <v>2021</v>
@@ -2573,7 +2573,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D109">
-        <v>132488</v>
+        <v>134883</v>
       </c>
       <c r="E109">
         <v>2022</v>
@@ -2593,7 +2593,7 @@
         <v>Nissan</v>
       </c>
       <c r="D110">
-        <v>136575</v>
+        <v>136863</v>
       </c>
       <c r="E110">
         <v>2023</v>
@@ -2613,7 +2613,7 @@
         <v>Mazda</v>
       </c>
       <c r="D111">
-        <v>135215</v>
+        <v>134116</v>
       </c>
       <c r="E111">
         <v>2024</v>
@@ -2633,7 +2633,7 @@
         <v>Toyota</v>
       </c>
       <c r="D112">
-        <v>139511</v>
+        <v>136689</v>
       </c>
       <c r="E112">
         <v>2015</v>
@@ -2653,7 +2653,7 @@
         <v>Ford</v>
       </c>
       <c r="D113">
-        <v>136173</v>
+        <v>139613</v>
       </c>
       <c r="E113">
         <v>2016</v>
@@ -2673,7 +2673,7 @@
         <v>Honda</v>
       </c>
       <c r="D114">
-        <v>137803</v>
+        <v>141855</v>
       </c>
       <c r="E114">
         <v>2017</v>
@@ -2693,7 +2693,7 @@
         <v>Tesla</v>
       </c>
       <c r="D115">
-        <v>142148</v>
+        <v>142174</v>
       </c>
       <c r="E115">
         <v>2018</v>
@@ -2713,7 +2713,7 @@
         <v>BMW</v>
       </c>
       <c r="D116">
-        <v>141488</v>
+        <v>142607</v>
       </c>
       <c r="E116">
         <v>2019</v>
@@ -2733,7 +2733,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D117">
-        <v>144613</v>
+        <v>140147</v>
       </c>
       <c r="E117">
         <v>2020</v>
@@ -2753,7 +2753,7 @@
         <v>Audi</v>
       </c>
       <c r="D118">
-        <v>141404</v>
+        <v>143727</v>
       </c>
       <c r="E118">
         <v>2021</v>
@@ -2773,7 +2773,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D119">
-        <v>146717</v>
+        <v>142228</v>
       </c>
       <c r="E119">
         <v>2022</v>
@@ -2793,7 +2793,7 @@
         <v>Nissan</v>
       </c>
       <c r="D120">
-        <v>145623</v>
+        <v>145130</v>
       </c>
       <c r="E120">
         <v>2023</v>
@@ -2813,7 +2813,7 @@
         <v>Mazda</v>
       </c>
       <c r="D121">
-        <v>146491</v>
+        <v>146283</v>
       </c>
       <c r="E121">
         <v>2024</v>
@@ -2833,7 +2833,7 @@
         <v>Toyota</v>
       </c>
       <c r="D122">
-        <v>148810</v>
+        <v>147000</v>
       </c>
       <c r="E122">
         <v>2015</v>
@@ -2853,7 +2853,7 @@
         <v>Ford</v>
       </c>
       <c r="D123">
-        <v>147054</v>
+        <v>148628</v>
       </c>
       <c r="E123">
         <v>2016</v>
@@ -2873,7 +2873,7 @@
         <v>Honda</v>
       </c>
       <c r="D124">
-        <v>151440</v>
+        <v>151094</v>
       </c>
       <c r="E124">
         <v>2017</v>
@@ -2893,7 +2893,7 @@
         <v>Tesla</v>
       </c>
       <c r="D125">
-        <v>148761</v>
+        <v>148383</v>
       </c>
       <c r="E125">
         <v>2018</v>
@@ -2913,7 +2913,7 @@
         <v>BMW</v>
       </c>
       <c r="D126">
-        <v>153928</v>
+        <v>151816</v>
       </c>
       <c r="E126">
         <v>2019</v>
@@ -2933,7 +2933,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D127">
-        <v>154177</v>
+        <v>150828</v>
       </c>
       <c r="E127">
         <v>2020</v>
@@ -2953,7 +2953,7 @@
         <v>Audi</v>
       </c>
       <c r="D128">
-        <v>154828</v>
+        <v>151554</v>
       </c>
       <c r="E128">
         <v>2021</v>
@@ -2973,7 +2973,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D129">
-        <v>156167</v>
+        <v>154199</v>
       </c>
       <c r="E129">
         <v>2022</v>
@@ -2993,7 +2993,7 @@
         <v>Nissan</v>
       </c>
       <c r="D130">
-        <v>157280</v>
+        <v>155814</v>
       </c>
       <c r="E130">
         <v>2023</v>
@@ -3013,7 +3013,7 @@
         <v>Mazda</v>
       </c>
       <c r="D131">
-        <v>154428</v>
+        <v>154079</v>
       </c>
       <c r="E131">
         <v>2024</v>
@@ -3033,7 +3033,7 @@
         <v>Toyota</v>
       </c>
       <c r="D132">
-        <v>159629</v>
+        <v>156436</v>
       </c>
       <c r="E132">
         <v>2015</v>
@@ -3053,7 +3053,7 @@
         <v>Ford</v>
       </c>
       <c r="D133">
-        <v>160409</v>
+        <v>156416</v>
       </c>
       <c r="E133">
         <v>2016</v>
@@ -3073,7 +3073,7 @@
         <v>Honda</v>
       </c>
       <c r="D134">
-        <v>158675</v>
+        <v>159626</v>
       </c>
       <c r="E134">
         <v>2017</v>
@@ -3093,7 +3093,7 @@
         <v>Tesla</v>
       </c>
       <c r="D135">
-        <v>162574</v>
+        <v>160801</v>
       </c>
       <c r="E135">
         <v>2018</v>
@@ -3113,7 +3113,7 @@
         <v>BMW</v>
       </c>
       <c r="D136">
-        <v>159140</v>
+        <v>160533</v>
       </c>
       <c r="E136">
         <v>2019</v>
@@ -3133,7 +3133,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D137">
-        <v>162324</v>
+        <v>164703</v>
       </c>
       <c r="E137">
         <v>2020</v>
@@ -3153,7 +3153,7 @@
         <v>Audi</v>
       </c>
       <c r="D138">
-        <v>162066</v>
+        <v>164896</v>
       </c>
       <c r="E138">
         <v>2021</v>
@@ -3173,7 +3173,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D139">
-        <v>165432</v>
+        <v>166264</v>
       </c>
       <c r="E139">
         <v>2022</v>
@@ -3193,7 +3193,7 @@
         <v>Nissan</v>
       </c>
       <c r="D140">
-        <v>164960</v>
+        <v>164953</v>
       </c>
       <c r="E140">
         <v>2023</v>
@@ -3213,7 +3213,7 @@
         <v>Mazda</v>
       </c>
       <c r="D141">
-        <v>166181</v>
+        <v>165842</v>
       </c>
       <c r="E141">
         <v>2024</v>
@@ -3233,7 +3233,7 @@
         <v>Toyota</v>
       </c>
       <c r="D142">
-        <v>167593</v>
+        <v>167882</v>
       </c>
       <c r="E142">
         <v>2015</v>
@@ -3253,7 +3253,7 @@
         <v>Ford</v>
       </c>
       <c r="D143">
-        <v>168203</v>
+        <v>169070</v>
       </c>
       <c r="E143">
         <v>2016</v>
@@ -3273,7 +3273,7 @@
         <v>Honda</v>
       </c>
       <c r="D144">
-        <v>167934</v>
+        <v>170739</v>
       </c>
       <c r="E144">
         <v>2017</v>
@@ -3293,7 +3293,7 @@
         <v>Tesla</v>
       </c>
       <c r="D145">
-        <v>172104</v>
+        <v>168728</v>
       </c>
       <c r="E145">
         <v>2018</v>
@@ -3313,7 +3313,7 @@
         <v>BMW</v>
       </c>
       <c r="D146">
-        <v>171375</v>
+        <v>172561</v>
       </c>
       <c r="E146">
         <v>2019</v>
@@ -3333,7 +3333,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D147">
-        <v>170612</v>
+        <v>172343</v>
       </c>
       <c r="E147">
         <v>2020</v>
@@ -3353,7 +3353,7 @@
         <v>Audi</v>
       </c>
       <c r="D148">
-        <v>171612</v>
+        <v>172276</v>
       </c>
       <c r="E148">
         <v>2021</v>
@@ -3373,7 +3373,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D149">
-        <v>173701</v>
+        <v>175191</v>
       </c>
       <c r="E149">
         <v>2022</v>
@@ -3393,7 +3393,7 @@
         <v>Nissan</v>
       </c>
       <c r="D150">
-        <v>176205</v>
+        <v>174824</v>
       </c>
       <c r="E150">
         <v>2023</v>
@@ -3413,7 +3413,7 @@
         <v>Mazda</v>
       </c>
       <c r="D151">
-        <v>174710</v>
+        <v>175248</v>
       </c>
       <c r="E151">
         <v>2024</v>
@@ -3433,7 +3433,7 @@
         <v>Toyota</v>
       </c>
       <c r="D152">
-        <v>178477</v>
+        <v>176741</v>
       </c>
       <c r="E152">
         <v>2015</v>
@@ -3453,7 +3453,7 @@
         <v>Ford</v>
       </c>
       <c r="D153">
-        <v>180584</v>
+        <v>179197</v>
       </c>
       <c r="E153">
         <v>2016</v>
@@ -3473,7 +3473,7 @@
         <v>Honda</v>
       </c>
       <c r="D154">
-        <v>178398</v>
+        <v>180595</v>
       </c>
       <c r="E154">
         <v>2017</v>
@@ -3493,7 +3493,7 @@
         <v>Tesla</v>
       </c>
       <c r="D155">
-        <v>180695</v>
+        <v>180804</v>
       </c>
       <c r="E155">
         <v>2018</v>
@@ -3513,7 +3513,7 @@
         <v>BMW</v>
       </c>
       <c r="D156">
-        <v>179167</v>
+        <v>182279</v>
       </c>
       <c r="E156">
         <v>2019</v>
@@ -3533,7 +3533,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D157">
-        <v>184586</v>
+        <v>181451</v>
       </c>
       <c r="E157">
         <v>2020</v>
@@ -3553,7 +3553,7 @@
         <v>Audi</v>
       </c>
       <c r="D158">
-        <v>185169</v>
+        <v>185158</v>
       </c>
       <c r="E158">
         <v>2021</v>
@@ -3573,7 +3573,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D159">
-        <v>182196</v>
+        <v>183527</v>
       </c>
       <c r="E159">
         <v>2022</v>
@@ -3593,7 +3593,7 @@
         <v>Nissan</v>
       </c>
       <c r="D160">
-        <v>187225</v>
+        <v>187978</v>
       </c>
       <c r="E160">
         <v>2023</v>
@@ -3613,7 +3613,7 @@
         <v>Mazda</v>
       </c>
       <c r="D161">
-        <v>186133</v>
+        <v>188057</v>
       </c>
       <c r="E161">
         <v>2024</v>
@@ -3633,7 +3633,7 @@
         <v>Toyota</v>
       </c>
       <c r="D162">
-        <v>188682</v>
+        <v>187158</v>
       </c>
       <c r="E162">
         <v>2015</v>
@@ -3653,7 +3653,7 @@
         <v>Ford</v>
       </c>
       <c r="D163">
-        <v>190606</v>
+        <v>187436</v>
       </c>
       <c r="E163">
         <v>2016</v>
@@ -3673,7 +3673,7 @@
         <v>Honda</v>
       </c>
       <c r="D164">
-        <v>189503</v>
+        <v>187514</v>
       </c>
       <c r="E164">
         <v>2017</v>
@@ -3693,7 +3693,7 @@
         <v>Tesla</v>
       </c>
       <c r="D165">
-        <v>191777</v>
+        <v>191996</v>
       </c>
       <c r="E165">
         <v>2018</v>
@@ -3713,7 +3713,7 @@
         <v>BMW</v>
       </c>
       <c r="D166">
-        <v>193028</v>
+        <v>189905</v>
       </c>
       <c r="E166">
         <v>2019</v>
@@ -3733,7 +3733,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D167">
-        <v>192421</v>
+        <v>191530</v>
       </c>
       <c r="E167">
         <v>2020</v>
@@ -3753,7 +3753,7 @@
         <v>Audi</v>
       </c>
       <c r="D168">
-        <v>195376</v>
+        <v>195820</v>
       </c>
       <c r="E168">
         <v>2021</v>
@@ -3773,7 +3773,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D169">
-        <v>192911</v>
+        <v>192429</v>
       </c>
       <c r="E169">
         <v>2022</v>
@@ -3793,7 +3793,7 @@
         <v>Nissan</v>
       </c>
       <c r="D170">
-        <v>195293</v>
+        <v>193143</v>
       </c>
       <c r="E170">
         <v>2023</v>
@@ -3813,7 +3813,7 @@
         <v>Mazda</v>
       </c>
       <c r="D171">
-        <v>194729</v>
+        <v>194697</v>
       </c>
       <c r="E171">
         <v>2024</v>
@@ -3833,7 +3833,7 @@
         <v>Toyota</v>
       </c>
       <c r="D172">
-        <v>195936</v>
+        <v>195299</v>
       </c>
       <c r="E172">
         <v>2015</v>
@@ -3853,7 +3853,7 @@
         <v>Ford</v>
       </c>
       <c r="D173">
-        <v>200137</v>
+        <v>198038</v>
       </c>
       <c r="E173">
         <v>2016</v>
@@ -3873,7 +3873,7 @@
         <v>Honda</v>
       </c>
       <c r="D174">
-        <v>198212</v>
+        <v>200512</v>
       </c>
       <c r="E174">
         <v>2017</v>
@@ -3893,7 +3893,7 @@
         <v>Tesla</v>
       </c>
       <c r="D175">
-        <v>200506</v>
+        <v>198405</v>
       </c>
       <c r="E175">
         <v>2018</v>
@@ -3913,7 +3913,7 @@
         <v>BMW</v>
       </c>
       <c r="D176">
-        <v>201080</v>
+        <v>202516</v>
       </c>
       <c r="E176">
         <v>2019</v>
@@ -3933,7 +3933,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D177">
-        <v>203276</v>
+        <v>200470</v>
       </c>
       <c r="E177">
         <v>2020</v>
@@ -3953,7 +3953,7 @@
         <v>Audi</v>
       </c>
       <c r="D178">
-        <v>204795</v>
+        <v>201243</v>
       </c>
       <c r="E178">
         <v>2021</v>
@@ -3973,7 +3973,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D179">
-        <v>206775</v>
+        <v>202987</v>
       </c>
       <c r="E179">
         <v>2022</v>
@@ -3993,7 +3993,7 @@
         <v>Nissan</v>
       </c>
       <c r="D180">
-        <v>203344</v>
+        <v>207286</v>
       </c>
       <c r="E180">
         <v>2023</v>
@@ -4013,7 +4013,7 @@
         <v>Mazda</v>
       </c>
       <c r="D181">
-        <v>205287</v>
+        <v>207090</v>
       </c>
       <c r="E181">
         <v>2024</v>
@@ -4033,7 +4033,7 @@
         <v>Toyota</v>
       </c>
       <c r="D182">
-        <v>208186</v>
+        <v>208729</v>
       </c>
       <c r="E182">
         <v>2015</v>
@@ -4053,7 +4053,7 @@
         <v>Ford</v>
       </c>
       <c r="D183">
-        <v>206221</v>
+        <v>210547</v>
       </c>
       <c r="E183">
         <v>2016</v>
@@ -4073,7 +4073,7 @@
         <v>Honda</v>
       </c>
       <c r="D184">
-        <v>210168</v>
+        <v>210126</v>
       </c>
       <c r="E184">
         <v>2017</v>
@@ -4093,7 +4093,7 @@
         <v>Tesla</v>
       </c>
       <c r="D185">
-        <v>208063</v>
+        <v>208535</v>
       </c>
       <c r="E185">
         <v>2018</v>
@@ -4113,7 +4113,7 @@
         <v>BMW</v>
       </c>
       <c r="D186">
-        <v>209794</v>
+        <v>213638</v>
       </c>
       <c r="E186">
         <v>2019</v>
@@ -4133,7 +4133,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D187">
-        <v>212703</v>
+        <v>213590</v>
       </c>
       <c r="E187">
         <v>2020</v>
@@ -4153,7 +4153,7 @@
         <v>Audi</v>
       </c>
       <c r="D188">
-        <v>213672</v>
+        <v>215291</v>
       </c>
       <c r="E188">
         <v>2021</v>
@@ -4173,7 +4173,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D189">
-        <v>214427</v>
+        <v>214553</v>
       </c>
       <c r="E189">
         <v>2022</v>
@@ -4193,7 +4193,7 @@
         <v>Nissan</v>
       </c>
       <c r="D190">
-        <v>217770</v>
+        <v>213010</v>
       </c>
       <c r="E190">
         <v>2023</v>
@@ -4213,7 +4213,7 @@
         <v>Mazda</v>
       </c>
       <c r="D191">
-        <v>216410</v>
+        <v>216436</v>
       </c>
       <c r="E191">
         <v>2024</v>
@@ -4233,7 +4233,7 @@
         <v>Toyota</v>
       </c>
       <c r="D192">
-        <v>219290</v>
+        <v>217918</v>
       </c>
       <c r="E192">
         <v>2015</v>
@@ -4253,7 +4253,7 @@
         <v>Ford</v>
       </c>
       <c r="D193">
-        <v>217991</v>
+        <v>219359</v>
       </c>
       <c r="E193">
         <v>2016</v>
@@ -4273,7 +4273,7 @@
         <v>Honda</v>
       </c>
       <c r="D194">
-        <v>220159</v>
+        <v>219635</v>
       </c>
       <c r="E194">
         <v>2017</v>
@@ -4293,7 +4293,7 @@
         <v>Tesla</v>
       </c>
       <c r="D195">
-        <v>222690</v>
+        <v>220201</v>
       </c>
       <c r="E195">
         <v>2018</v>
@@ -4313,7 +4313,7 @@
         <v>BMW</v>
       </c>
       <c r="D196">
-        <v>220218</v>
+        <v>221647</v>
       </c>
       <c r="E196">
         <v>2019</v>
@@ -4333,7 +4333,7 @@
         <v>Mercedes</v>
       </c>
       <c r="D197">
-        <v>223977</v>
+        <v>220996</v>
       </c>
       <c r="E197">
         <v>2020</v>
@@ -4353,7 +4353,7 @@
         <v>Audi</v>
       </c>
       <c r="D198">
-        <v>225407</v>
+        <v>225224</v>
       </c>
       <c r="E198">
         <v>2021</v>
@@ -4373,7 +4373,7 @@
         <v>Chevrolet</v>
       </c>
       <c r="D199">
-        <v>225051</v>
+        <v>223793</v>
       </c>
       <c r="E199">
         <v>2022</v>
@@ -4393,7 +4393,7 @@
         <v>Nissan</v>
       </c>
       <c r="D200">
-        <v>226195</v>
+        <v>227245</v>
       </c>
       <c r="E200">
         <v>2023</v>
@@ -4413,7 +4413,7 @@
         <v>Mazda</v>
       </c>
       <c r="D201">
-        <v>224376</v>
+        <v>224041</v>
       </c>
       <c r="E201">
         <v>2024</v>
